--- a/biology/Zoologie/Diaperis_boleti/Diaperis_boleti.xlsx
+++ b/biology/Zoologie/Diaperis_boleti/Diaperis_boleti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaperis boleti est un coléoptère  mycophage de la famille de ténébrionidés, sous-famille des Diaperinae, tribu des Diaperini, et du genre Diaperis.
 Il se nourrit essentiellement de champignons polypores dans les forêts feuillues.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insecte, bombé et de forme ovoïde mesure de 6 à 8 mm de long. Les élytres sont noirs, brillants et jaunes ou orangés. La larve est allongée et cylindrique.
 </t>
@@ -545,11 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Mycophage : il se nourrit essentiellement des agarics, du Polypore du bouleau (Piptoporus betulinus) et du Polypore soufré (Laetiporus sulphureus)[1].
-Reproduction
-La ponte a lieu dès le mois de mai dans les sporophores.
-Les larves éclosent en juin, une seconde éclosion est possible en septembre. Les larves se nourrissent du champignon.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mycophage : il se nourrit essentiellement des agarics, du Polypore du bouleau (Piptoporus betulinus) et du Polypore soufré (Laetiporus sulphureus).
 </t>
         </is>
       </c>
@@ -575,10 +591,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ponte a lieu dès le mois de mai dans les sporophores.
+Les larves éclosent en juin, une seconde éclosion est possible en septembre. Les larves se nourrissent du champignon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diaperis_boleti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaperis_boleti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Répartition
 Europe occidentale et centrale.
@@ -587,35 +643,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Diaperis_boleti</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Diaperis_boleti</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Diaperis boleti a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Chrysomela boleti[2]. Étienne Louis Geoffroy en 1762 décrivit le genre Diaperis.
-Synonymie
-Chrysomela boleti Linné, 1758 Protonyme</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Diaperis boleti a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Chrysomela boleti. Étienne Louis Geoffroy en 1762 décrivit le genre Diaperis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diaperis_boleti</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaperis_boleti</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chrysomela boleti Linné, 1758 Protonyme</t>
         </is>
       </c>
     </row>
